--- a/team_specific_matrix/Trinity Baptist_B.xlsx
+++ b/team_specific_matrix/Trinity Baptist_B.xlsx
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.21875</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="C2">
         <v>0.4375</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09375</v>
+        <v>0.0625</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0625</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07142857142857142</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1333333333333333</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06666666666666667</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1333333333333333</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="R6">
-        <v>0.06666666666666667</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09090909090909091</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2727272727272727</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.6363636363636364</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1142857142857143</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05714285714285714</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05714285714285714</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1428571428571428</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="R8">
-        <v>0.05714285714285714</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="S8">
-        <v>0.3714285714285714</v>
+        <v>0.3934426229508197</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1134751773049645</v>
+        <v>0.09246575342465753</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02127659574468085</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06382978723404255</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1773049645390071</v>
+        <v>0.1575342465753425</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02836879432624113</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2695035460992908</v>
+        <v>0.2636986301369863</v>
       </c>
       <c r="R10">
-        <v>0.1063829787234043</v>
+        <v>0.1061643835616438</v>
       </c>
       <c r="S10">
-        <v>0.2198581560283688</v>
+        <v>0.2705479452054795</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1875</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L11">
-        <v>0.5625</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2105263157894737</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="I15">
-        <v>0.05263157894736842</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J15">
-        <v>0.3157894736842105</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="K15">
-        <v>0.05263157894736842</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1578947368421053</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2105263157894737</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05555555555555555</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4444444444444444</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="K16">
-        <v>0.05555555555555555</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.05555555555555555</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1555555555555556</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="I17">
-        <v>0.02222222222222222</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="J17">
-        <v>0.5555555555555556</v>
+        <v>0.6082474226804123</v>
       </c>
       <c r="K17">
-        <v>0.1111111111111111</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.04444444444444445</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08888888888888889</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.02222222222222222</v>
+        <v>0.03092783505154639</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.15</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="I18">
-        <v>0.05</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="J18">
-        <v>0.7</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1794871794871795</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="I19">
-        <v>0.08974358974358974</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="J19">
-        <v>0.5641025641025641</v>
+        <v>0.5574712643678161</v>
       </c>
       <c r="K19">
-        <v>0.0641025641025641</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05128205128205128</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.05128205128205128</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
   </sheetData>
